--- a/3er Año/Economía/Práctica de Parcial/Costos - Contabilidad - Tablero de comando/Ejercicio 4.xlsx
+++ b/3er Año/Economía/Práctica de Parcial/Costos - Contabilidad - Tablero de comando/Ejercicio 4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tambo\OneDrive\Documentos\UTN\3er Año\Economía\Práctica de Parcial\Costos - Contabilidad - Tablero de comando\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agus\Documents\UTN\3er Año\Economía\Práctica de Parcial\Costos - Contabilidad - Tablero de comando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E4BD4B-A40F-44E9-8228-5CC8F6C80E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE3CD25-D230-4DDD-898D-50E4F119B8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consigna" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="144">
   <si>
     <t>Patrimonio Neto Promedio</t>
   </si>
@@ -368,60 +368,12 @@
     <t>Dividendos a pagar</t>
   </si>
   <si>
-    <t>Capital invertido por accionistas</t>
-  </si>
-  <si>
     <t>Patrimonio Neto</t>
   </si>
   <si>
     <t>ROA (Rentabilidad del Activo)</t>
   </si>
   <si>
-    <t>AÑO</t>
-  </si>
-  <si>
-    <t>CAJA Y BANCOS</t>
-  </si>
-  <si>
-    <t>CRÉDITOS</t>
-  </si>
-  <si>
-    <t>BIENES DE CAMBIO</t>
-  </si>
-  <si>
-    <t>INMUEBLES</t>
-  </si>
-  <si>
-    <t>MAQUINARIAS</t>
-  </si>
-  <si>
-    <t>ELEMENTOS DE TRANSPORTE</t>
-  </si>
-  <si>
-    <t>DEUDAS BANCARIAS DE CORTO PLAZO</t>
-  </si>
-  <si>
-    <t>DEUDAS CON PROVEEDORES DE CORTO PLAZO</t>
-  </si>
-  <si>
-    <t>DEUDAS BANCARIAS DE LARGO PLAZO</t>
-  </si>
-  <si>
-    <t>DEUDAS CON OTROS ACREEDORES DE LARGO PLAZO</t>
-  </si>
-  <si>
-    <t>PATRIMONIO NETO INICIAL</t>
-  </si>
-  <si>
-    <t>RESULTADO NETO DEL EJERCICIO</t>
-  </si>
-  <si>
-    <t>VENTAS</t>
-  </si>
-  <si>
-    <t>a) La situación financiera en el año 2019 respecto del año 2018</t>
-  </si>
-  <si>
     <t>Inmuebles</t>
   </si>
   <si>
@@ -455,94 +407,70 @@
     <t>UN (Utilidad Neta) o Resultado Neto</t>
   </si>
   <si>
-    <t>Una empresa con las partidas de las cuentas que se detallan en la tabla siguiente para los años 2018 y 2019</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>65.21</t>
-  </si>
-  <si>
-    <t>128.25</t>
-  </si>
-  <si>
-    <t>1,165.32</t>
-  </si>
-  <si>
-    <t>940.52</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>144.80</t>
-  </si>
-  <si>
-    <t>130.20</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>1,958.00</t>
-  </si>
-  <si>
-    <t>118.30</t>
-  </si>
-  <si>
-    <t>915.00</t>
-  </si>
-  <si>
-    <t>40.60</t>
-  </si>
-  <si>
-    <t>80.20</t>
-  </si>
-  <si>
-    <t>164.20</t>
-  </si>
-  <si>
-    <t>1,250.23</t>
-  </si>
-  <si>
-    <t>975.45</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>150.18</t>
-  </si>
-  <si>
-    <t>120.70</t>
-  </si>
-  <si>
-    <t>25.22</t>
-  </si>
-  <si>
-    <t>35.19</t>
-  </si>
-  <si>
-    <t>2,076.30</t>
-  </si>
-  <si>
-    <t>181.09</t>
-  </si>
-  <si>
-    <t>1,098.00</t>
-  </si>
-  <si>
-    <t>1) Armar el Cuadro de Situación Patrimonial o Balance</t>
-  </si>
-  <si>
-    <t>2) Indique, usando al menos 3 indicadores, como ha evolucionado</t>
-  </si>
-  <si>
-    <t>b) La situación económica del año 2019 respecto del año 2018</t>
+    <t>Bienes de cambio a CP</t>
+  </si>
+  <si>
+    <t> 600.000</t>
+  </si>
+  <si>
+    <t>Bienes de uso</t>
+  </si>
+  <si>
+    <t>Capital Social</t>
+  </si>
+  <si>
+    <t>Créditos a CP</t>
+  </si>
+  <si>
+    <t>Deudas a CP                             </t>
+  </si>
+  <si>
+    <t>Deudas a LP                           </t>
+  </si>
+  <si>
+    <t>Caja y bancos                             </t>
+  </si>
+  <si>
+    <t>Gastos Var Comerc                 </t>
+  </si>
+  <si>
+    <t>Gastos fijos                               </t>
+  </si>
+  <si>
+    <t>Ut desp IG                              </t>
+  </si>
+  <si>
+    <t>Determine</t>
+  </si>
+  <si>
+    <t>1. Cuadro de resultados</t>
+  </si>
+  <si>
+    <t>2. Balance general</t>
+  </si>
+  <si>
+    <t>3. Rotación del activo corriente</t>
+  </si>
+  <si>
+    <t>4. ROE – Rentab de los socios</t>
+  </si>
+  <si>
+    <t>5. índice de endeudamiento</t>
+  </si>
+  <si>
+    <t>Con las partidas de las cuentas que se detallan a continuación, calcule lo siguiente</t>
+  </si>
+  <si>
+    <t>Bienes de Uso</t>
+  </si>
+  <si>
+    <t>Capital invertido por accionistas o Capital social</t>
+  </si>
+  <si>
+    <t>Deudas a corto plazo totales</t>
+  </si>
+  <si>
+    <t>Deudas a largo plazo totales</t>
   </si>
 </sst>
 </file>
@@ -577,7 +505,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -596,8 +524,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -646,117 +586,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -795,7 +630,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -821,33 +655,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -861,17 +676,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1153,14 +997,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
@@ -1168,895 +1014,898 @@
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="56">
+        <v>10000000</v>
+      </c>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="56">
+        <v>8000000</v>
+      </c>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="54">
+        <v>1900000</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="54">
+        <v>300000</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="54">
+        <v>200000</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="54">
+        <v>1900000</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="54">
+        <v>300000</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="54">
+        <v>100000</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="54">
+        <v>400000</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="54">
+        <v>1100000</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-    </row>
-    <row r="2" spans="1:14" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="M2" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43">
-        <v>2019</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="J4" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="K4" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="M4" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="N4" s="56" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
       <c r="B20" s="35"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="26"/>
-      <c r="K24" s="26"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="25"/>
+      <c r="K24" s="25"/>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
       <c r="L29" s="19"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
       <c r="L30" s="19"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
       <c r="L32" s="19"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
       <c r="L33" s="19"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
       <c r="L34" s="19"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
       <c r="L35" s="19"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
       <c r="L36" s="19"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
       <c r="L37" s="19"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
       <c r="L38" s="19"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
       <c r="L39" s="19"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
       <c r="L40" s="19"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
       <c r="L41" s="19"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
       <c r="L42" s="19"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
       <c r="L43" s="19"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
       <c r="L44" s="19"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
       <c r="L45" s="19"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
       <c r="L46" s="19"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
       <c r="L47" s="19"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
       <c r="L48" s="19"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
       <c r="L49" s="19"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
       <c r="L50" s="19"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
       <c r="L51" s="19"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
       <c r="L52" s="19"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
       <c r="L53" s="19"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
       <c r="L54" s="19"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2088,9 +1937,7 @@
       <c r="L56" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G17:J17"/>
+  <mergeCells count="1">
     <mergeCell ref="B44:C44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2100,21 +1947,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="44.140625" customWidth="1"/>
     <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2150,31 +1998,37 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="9">
+        <v>300000</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="10">
         <f>IF(B3&gt;0,B3,C3)</f>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="9">
+        <v>100000</v>
+      </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10">
         <f>IF(H3&gt;0,H3,I3)</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9">
+        <v>300000</v>
+      </c>
       <c r="C4" s="11"/>
       <c r="D4" s="10">
         <f t="shared" ref="D4:D5" si="0">IF(B4&gt;0,B4,C4)</f>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>18</v>
@@ -2182,7 +2036,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10">
-        <f t="shared" ref="J4:J10" si="1">IF(H4&gt;0,H4,I4)</f>
+        <f t="shared" ref="J4:J5" si="1">IF(H4&gt;0,H4,I4)</f>
         <v>0</v>
       </c>
     </row>
@@ -2190,11 +2044,13 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="9">
+        <v>600000</v>
+      </c>
       <c r="C5" s="11"/>
       <c r="D5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>20</v>
@@ -2208,13 +2064,15 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="9"/>
+        <v>140</v>
+      </c>
+      <c r="B6" s="9">
+        <v>10000000</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="D6" s="10">
         <f t="shared" ref="D6" si="2">IF(B6&gt;0,B6,C6)</f>
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>19</v>
@@ -2222,18 +2080,18 @@
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10">
-        <f t="shared" si="1"/>
+        <f>IF(H6&gt;0,H6,I6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="11"/>
       <c r="D7" s="10">
-        <f t="shared" ref="D7:D17" si="3">IF(B7&gt;0,B7,C7)</f>
+        <f t="shared" ref="D7" si="3">IF(B7&gt;0,B7,C7)</f>
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2242,18 +2100,18 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10">
-        <f t="shared" si="1"/>
+        <f>IF(H7&gt;0,H7,I7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D8:D18" si="4">IF(B8&gt;0,B8,C8)</f>
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2262,18 +2120,18 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10">
-        <f t="shared" si="1"/>
+        <f>IF(H8&gt;0,H8,I8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -2282,55 +2140,57 @@
       <c r="H9" s="9"/>
       <c r="I9" s="10">
         <f>J3+J5+J7</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="J9" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(H9&gt;0,H9,I9)</f>
+        <v>100000</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="9">
+        <v>400000</v>
+      </c>
       <c r="I10" s="10">
         <f>J4+J6+J8</f>
         <v>0</v>
       </c>
       <c r="J10" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(H10&gt;0,H10,I10)</f>
+        <v>400000</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -2348,12 +2208,12 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -2362,18 +2222,18 @@
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10">
-        <f t="shared" ref="J13:J14" si="4">IF(H13&gt;0,H13,I13)</f>
+        <f t="shared" ref="J13:J14" si="5">IF(H13&gt;0,H13,I13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -2382,21 +2242,18 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10">
-        <f>D9+D10+D11+D12+D13+D14</f>
-        <v>0</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -2404,7 +2261,7 @@
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10">
-        <f ca="1">J16/D31</f>
+        <f ca="1">J16/D34</f>
         <v>0</v>
       </c>
       <c r="J15" s="10">
@@ -2414,23 +2271,25 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9"/>
+        <v>142</v>
+      </c>
+      <c r="B16" s="9">
+        <v>200000</v>
+      </c>
       <c r="C16" s="10">
-        <f>B34*B33</f>
+        <f>D10+D12+D14</f>
         <v>0</v>
       </c>
       <c r="D16" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="D16:D17" si="6">IF(B16&gt;0,B16,C16)</f>
+        <v>200000</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="10">
-        <f ca="1">J15*D31</f>
+        <f ca="1">J15*D34</f>
         <v>0</v>
       </c>
       <c r="J16" s="10">
@@ -2440,13 +2299,18 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+        <v>143</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1900000</v>
+      </c>
+      <c r="C17" s="10">
+        <f>D11+D13+D15</f>
+        <v>0</v>
+      </c>
       <c r="D17" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="D17" si="7">IF(B17&gt;0,B17,C17)</f>
+        <v>1900000</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>59</v>
@@ -2463,39 +2327,58 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="C18" s="10">
+        <f>D16+D17</f>
+        <v>2100000</v>
+      </c>
       <c r="D18" s="10">
-        <f t="shared" ref="D18:D19" si="5">IF(B18&gt;0,B18,C18)</f>
-        <v>0</v>
+        <f>IF(B18&gt;0,B18,C18)</f>
+        <v>2100000</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="10">
+        <v>1900000</v>
+      </c>
       <c r="I18" s="10">
-        <f ca="1">IF(B28="FIFO",IF(B32&gt;B33,B33*J13,J14+((B33-B32)*J15)))</f>
+        <f ca="1">IF(B31="FIFO",IF(B35&gt;B36,B36*J13,J14+((B36-B35)*J15)))</f>
         <v>0</v>
       </c>
       <c r="J18" s="10">
-        <f ca="1">IF(H18&gt;0,H18,I18)</f>
-        <v>0</v>
+        <f>IF(H18&gt;0,H18,I18)</f>
+        <v>1900000</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="9">
+        <v>3500000</v>
+      </c>
+      <c r="C19" s="10">
+        <f>B37*B36</f>
+        <v>0</v>
+      </c>
       <c r="D19" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(B19&gt;0,B19,C19)</f>
+        <v>3500000</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10">
+        <f>IF(B20&gt;0,B20,C20)</f>
+        <v>0</v>
+      </c>
       <c r="G20" s="6" t="s">
         <v>26</v>
       </c>
@@ -2510,271 +2393,298 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="A21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10">
+        <f t="shared" ref="D21:D22" si="8">IF(B21&gt;0,B21,C21)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10">
-        <f>D10+D12+D14</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="10">
+      <c r="H21" s="60"/>
+      <c r="I21" s="60">
+        <f>D17</f>
+        <v>1900000</v>
+      </c>
+      <c r="J21" s="60">
         <f>IF(H21&gt;0,H21,I21)</f>
-        <v>0</v>
+        <v>1900000</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="10">
+        <v>8000000</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10">
+        <f t="shared" si="8"/>
+        <v>8000000</v>
+      </c>
+      <c r="G22" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60">
+        <f>D16</f>
+        <v>200000</v>
+      </c>
+      <c r="J22" s="60">
+        <f t="shared" ref="J22" si="9">IF(H22&gt;0,H22,I22)</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G23" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58">
+        <f>J21+J22</f>
+        <v>2100000</v>
+      </c>
+      <c r="J23" s="58">
+        <f t="shared" ref="J23" si="10">IF(H23&gt;0,H23,I23)</f>
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60">
+        <f>D7+D8+D9+D6</f>
+        <v>10000000</v>
+      </c>
+      <c r="J24" s="60">
+        <f>IF(H24&gt;0,H24,I24)</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="3" t="s">
+      <c r="B25" s="16">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10">
-        <f>D9+D11+D13</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="10">
-        <f t="shared" ref="J22" si="6">IF(H22&gt;0,H22,I22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12">
-        <f>IFERROR(D17/D15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="12">
-        <f>IF(B23&gt;0,B23,C23)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10">
-        <f>J21+J22</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="10">
-        <f t="shared" ref="J23" si="7">IF(H23&gt;0,H23,I23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12">
-        <f>D23-(D23*B22)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="12">
-        <f>IF(B24&gt;0,B24,C24)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10">
-        <f>D6+D7+D8</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="10">
-        <f>IF(H24&gt;0,H24,I24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12">
-        <f>IFERROR(D18/D19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="12">
-        <f>IF(B25&gt;0,B25,C25)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10">
+      <c r="H25" s="60"/>
+      <c r="I25" s="60">
         <f>D3+D4+D5</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="10">
+        <v>1200000</v>
+      </c>
+      <c r="J25" s="60">
         <f>IF(H25&gt;0,H25,I25)</f>
-        <v>0</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12">
-        <f>IFERROR((D25*(J27/(J27+D15)))+(D24*(D15/(D15+J27))),0)</f>
+        <f>IFERROR(D20/D18,0)</f>
         <v>0</v>
       </c>
       <c r="D26" s="12">
         <f>IF(B26&gt;0,B26,C26)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10">
+      <c r="H26" s="58"/>
+      <c r="I26" s="58">
         <f>J24+J25</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" ref="J26" si="8">IF(H26&gt;0,H26,I26)</f>
-        <v>0</v>
+        <v>11200000</v>
+      </c>
+      <c r="J26" s="58">
+        <f t="shared" ref="J26" si="11">IF(H26&gt;0,H26,I26)</f>
+        <v>11200000</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G27" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="10">
+      <c r="A27" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12">
+        <f>D26-(D26*B25)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
+        <f>IF(B27&gt;0,B27,C27)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="60"/>
+      <c r="I27" s="62">
+        <f>D22</f>
+        <v>8000000</v>
+      </c>
+      <c r="J27" s="60">
         <f>IF(H27&gt;0,H27,I27)</f>
-        <v>0</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>58</v>
+      <c r="A28" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12">
+        <f>IFERROR(D21/D22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="12">
+        <f>IF(B28&gt;0,B28,C28)</f>
+        <v>0</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="9">
-        <f ca="1">AVERAGE(J27,J29)</f>
-        <v>0</v>
+        <f>AVERAGE(J27,J29)</f>
+        <v>8550000</v>
       </c>
       <c r="J28" s="10">
-        <f ca="1">IF(H28&gt;0,H28,I28)</f>
-        <v>0</v>
+        <f>IF(H28&gt;0,H28,I28)</f>
+        <v>8550000</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G29" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="9">
-        <f ca="1">J27+'Sistemas de costeo'!D16</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="10">
-        <f ca="1">IF(H29&gt;0,H29,I29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A29" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12">
+        <f>IFERROR((D28*(J27/(J27+D18)))+(D27*(D18/(D18+J27))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="12">
+        <f>IF(B29&gt;0,B29,C29)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="58"/>
+      <c r="I29" s="64">
+        <f>J27+'Sistemas de costeo'!D16</f>
+        <v>9100000</v>
+      </c>
+      <c r="J29" s="58">
+        <f>IF(H29&gt;0,H29,I29)</f>
+        <v>9100000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B33" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5">
-        <f ca="1">J16/J15</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="5">
-        <f ca="1">IF(B31&gt;0,B31,C31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5">
+        <f ca="1">J16/J15</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <f ca="1">IF(B34&gt;0,B34,C34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D37" s="11" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"FIFO,LIFO,PPP"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2788,16 +2698,18 @@
   <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" customWidth="1"/>
+    <col min="2" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="35.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2809,18 +2721,18 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -2852,40 +2764,43 @@
       <c r="A6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23">
-        <f>'Cuentas y Costos'!D16</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="23">
+      <c r="B6" s="22">
+        <f>B9+D7+D8</f>
+        <v>3500000</v>
+      </c>
+      <c r="C6" s="22">
+        <f>'Cuentas y Costos'!D19</f>
+        <v>3500000</v>
+      </c>
+      <c r="D6" s="22">
         <f t="shared" ref="D6:D13" si="0">IF(B6&gt;0,B6,C6)</f>
-        <v>0</v>
+        <v>3500000</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10">
-        <f>'Cuentas y Costos'!D16</f>
-        <v>0</v>
+        <f>'Cuentas y Costos'!D19</f>
+        <v>3500000</v>
       </c>
       <c r="H6" s="10">
         <f t="shared" ref="H6:H13" si="1">IF(F6&gt;0,F6,G6)</f>
-        <v>0</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23">
-        <f ca="1">'Cuentas y Costos'!J18</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="23">
-        <f ca="1">IF(B7&gt;0,B7,C7)</f>
-        <v>0</v>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22">
+        <f>'Cuentas y Costos'!J18</f>
+        <v>1900000</v>
+      </c>
+      <c r="D7" s="22">
+        <f>IF(B7&gt;0,B7,C7)</f>
+        <v>1900000</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>19</v>
@@ -2904,66 +2819,69 @@
       <c r="A8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22">
         <f>'Cuentas y Costos'!J3</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="23">
+        <v>100000</v>
+      </c>
+      <c r="D8" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10">
-        <f ca="1">'Cuentas y Costos'!J18+H7</f>
-        <v>0</v>
+        <f>'Cuentas y Costos'!J18+H7</f>
+        <v>1900000</v>
       </c>
       <c r="H8" s="10">
-        <f ca="1">IF(F8&gt;0,F8,G8)</f>
-        <v>0</v>
+        <f>IF(F8&gt;0,F8,G8)</f>
+        <v>1900000</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23">
-        <f ca="1">D6-D7-D8</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="24">
-        <f ca="1">IF(B9&gt;0,B9,C9)</f>
-        <v>0</v>
+      <c r="B9" s="22">
+        <f>B12+D11+D10</f>
+        <v>1500000</v>
+      </c>
+      <c r="C9" s="22">
+        <f>D6-D7-D8</f>
+        <v>1500000</v>
+      </c>
+      <c r="D9" s="23">
+        <f>IF(B9&gt;0,B9,C9)</f>
+        <v>1500000</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>61</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10">
-        <f ca="1">H6-H8</f>
-        <v>0</v>
+        <f>H6-H8</f>
+        <v>1600000</v>
       </c>
       <c r="H9" s="10">
-        <f ca="1">IF(F9&gt;0,F9,G9)</f>
-        <v>0</v>
+        <f>IF(F9&gt;0,F9,G9)</f>
+        <v>1600000</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22">
         <f>'Cuentas y Costos'!J10</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="23">
+        <v>400000</v>
+      </c>
+      <c r="D10" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>42</v>
@@ -2971,23 +2889,23 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10">
         <f>'Cuentas y Costos'!J10-H7</f>
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22">
         <f>'Cuentas y Costos'!J9-D8</f>
         <v>0</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2997,49 +2915,52 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10">
         <f>'Cuentas y Costos'!J9</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23">
-        <f ca="1">D9-D10-D11</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="24">
-        <f ca="1">IF(B12&gt;0,B12,C12)</f>
-        <v>0</v>
+      <c r="B12" s="22">
+        <f>B14+D13</f>
+        <v>1100000</v>
+      </c>
+      <c r="C12" s="22">
+        <f>D9-D10-D11</f>
+        <v>1100000</v>
+      </c>
+      <c r="D12" s="23">
+        <f>IF(B12&gt;0,B12,C12)</f>
+        <v>1100000</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10">
-        <f ca="1">H9-H10-H11</f>
-        <v>0</v>
+        <f>H9-H10-H11</f>
+        <v>1100000</v>
       </c>
       <c r="H12" s="10">
-        <f ca="1">IF(F12&gt;0,F12,G12)</f>
-        <v>0</v>
+        <f>IF(F12&gt;0,F12,G12)</f>
+        <v>1100000</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23">
-        <f>'Cuentas y Costos'!D17</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="24">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22">
+        <f>'Cuentas y Costos'!D20</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3048,7 +2969,7 @@
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10">
-        <f>'Cuentas y Costos'!D17</f>
+        <f>'Cuentas y Costos'!D20</f>
         <v>0</v>
       </c>
       <c r="H13" s="9">
@@ -3060,26 +2981,29 @@
       <c r="A14" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23">
-        <f ca="1">D12-D13</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="24">
-        <f ca="1">IF(B14&gt;0,B14,C14)</f>
-        <v>0</v>
+      <c r="B14" s="22">
+        <f>B16+(B16*B15)</f>
+        <v>1100000</v>
+      </c>
+      <c r="C14" s="22">
+        <f>D12-D13</f>
+        <v>1100000</v>
+      </c>
+      <c r="D14" s="23">
+        <f>IF(B14&gt;0,B14,C14)</f>
+        <v>1100000</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10">
-        <f ca="1">H12-H13</f>
-        <v>0</v>
+        <f>H12-H13</f>
+        <v>1100000</v>
       </c>
       <c r="H14" s="9">
-        <f ca="1">IF(F14&gt;0,F14,G14)</f>
-        <v>0</v>
+        <f>IF(F14&gt;0,F14,G14)</f>
+        <v>1100000</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -3087,10 +3011,10 @@
         <v>50</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>46</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -3106,40 +3030,42 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23">
-        <f ca="1">D14-(D14*B15)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="24">
-        <f ca="1">IF(B16&gt;0,B16,C16)</f>
-        <v>330</v>
+        <v>121</v>
+      </c>
+      <c r="B16" s="22">
+        <v>1100000</v>
+      </c>
+      <c r="C16" s="22">
+        <f>D14-(D14*B15)</f>
+        <v>1100000</v>
+      </c>
+      <c r="D16" s="23">
+        <f>IF(B16&gt;0,B16,C16)</f>
+        <v>1100000</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10">
-        <f ca="1">H14-(H14*F15)</f>
-        <v>0</v>
+        <f>H14-(H14*F15)</f>
+        <v>1100000</v>
       </c>
       <c r="H16" s="9">
-        <f ca="1">IF(F16&gt;0,F16,G16)</f>
-        <v>330</v>
+        <f>IF(F16&gt;0,F16,G16)</f>
+        <v>1100000</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23">
-        <f ca="1">IF('Cuentas y Costos'!B28="FIFO",IF('Cuentas y Costos'!B32&gt;'Cuentas y Costos'!B33,('Cuentas y Costos'!B32-'Cuentas y Costos'!B33)*'Cuentas y Costos'!J13,('Cuentas y Costos'!B31-('Cuentas y Costos'!B33-'Cuentas y Costos'!B32))*'Cuentas y Costos'!J15))</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="23">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22">
+        <f ca="1">IF('Cuentas y Costos'!B31="FIFO",IF('Cuentas y Costos'!B35&gt;'Cuentas y Costos'!B36,('Cuentas y Costos'!B35-'Cuentas y Costos'!B36)*'Cuentas y Costos'!J13,('Cuentas y Costos'!B34-('Cuentas y Costos'!B36-'Cuentas y Costos'!B35))*'Cuentas y Costos'!J15))</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="22">
         <f ca="1">IF(B17&gt;0,B17,C17)</f>
         <v>0</v>
       </c>
@@ -3148,7 +3074,7 @@
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10">
-        <f ca="1">('Cuentas y Costos'!J15+(H7/'Cuentas y Costos'!B31))*('Cuentas y Costos'!B32+'Cuentas y Costos'!B31-'Cuentas y Costos'!B33)</f>
+        <f ca="1">('Cuentas y Costos'!J15+(H7/'Cuentas y Costos'!B34))*('Cuentas y Costos'!B35+'Cuentas y Costos'!B34-'Cuentas y Costos'!B36)</f>
         <v>0</v>
       </c>
       <c r="H17" s="10">
@@ -3174,8 +3100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3214,11 +3140,11 @@
       <c r="B3" s="10"/>
       <c r="C3" s="10">
         <f>'Cuentas y Costos'!D3+'Cuentas y Costos'!D4</f>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="D3" s="10">
         <f>IF(B3&gt;0,B3,C3)</f>
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
@@ -3237,11 +3163,11 @@
       <c r="B4" s="20"/>
       <c r="C4" s="20">
         <f>IFERROR(D3/'Cuentas y Costos'!J22, 0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="20">
         <f t="shared" ref="D4:D9" si="0">IF(B4&gt;0,B4,C4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
@@ -3260,11 +3186,11 @@
       <c r="B5" s="20"/>
       <c r="C5" s="20">
         <f>IFERROR(('Cuentas y Costos'!D5+D3)/'Cuentas y Costos'!J22,0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
@@ -3277,17 +3203,17 @@
       <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20">
-        <f>IFERROR('Cuentas y Costos'!J22/'Cuentas y Costos'!J25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="20">
+      <c r="B6" s="65"/>
+      <c r="C6" s="65">
+        <f>IFERROR('Cuentas y Costos'!J23/'Cuentas y Costos'!J26,0)</f>
+        <v>0.1875</v>
+      </c>
+      <c r="D6" s="65">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
@@ -3305,12 +3231,12 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21">
-        <f ca="1">IFERROR(IF('Sistemas de costeo'!B2="DIRECTO",'Sistemas de costeo'!D16,'Sistemas de costeo'!H16)/'Cuentas y Costos'!D16,0)</f>
-        <v>0</v>
+        <f>IFERROR(IF('Sistemas de costeo'!B2="DIRECTO",'Sistemas de costeo'!D16,'Sistemas de costeo'!H16)/'Cuentas y Costos'!D19,0)</f>
+        <v>0.31428571428571428</v>
       </c>
       <c r="D7" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.31428571428571428</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
@@ -3328,12 +3254,12 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20">
-        <f ca="1">IFERROR('Cuentas y Costos'!D16/'Cuentas y Costos'!J28,0)</f>
-        <v>0</v>
+        <f>IFERROR('Cuentas y Costos'!D19/'Cuentas y Costos'!J28,0)</f>
+        <v>0.40935672514619881</v>
       </c>
       <c r="D8" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.40935672514619881</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
@@ -3346,17 +3272,17 @@
       <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21">
-        <f ca="1">D7*D8</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67">
+        <f>D7*D8</f>
+        <v>0.12865497076023391</v>
+      </c>
+      <c r="D9" s="67">
+        <f t="shared" si="0"/>
+        <v>0.12865497076023391</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -3369,31 +3295,31 @@
       <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="22">
-        <f>IFERROR('Cuentas y Costos'!D16/'Cuentas y Costos'!J25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="20">
+      <c r="B10" s="65"/>
+      <c r="C10" s="66">
+        <f>IFERROR('Cuentas y Costos'!D19/'Cuentas y Costos'!J25,0)</f>
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="D10" s="65">
         <f>IF(B10&gt;0,B10,C10)</f>
-        <v>0</v>
+        <v>2.9166666666666665</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21">
-        <f ca="1">IFERROR(D7*('Cuentas y Costos'!D16/'Cuentas y Costos'!J26),0)</f>
-        <v>0</v>
+        <f>IFERROR(D7*('Cuentas y Costos'!D19/'Cuentas y Costos'!J26),0)</f>
+        <v>9.8214285714285712E-2</v>
       </c>
       <c r="D11" s="21">
-        <f ca="1">IF(B11&gt;0,B11,C11)</f>
-        <v>0</v>
+        <f>IF(B11&gt;0,B11,C11)</f>
+        <v>9.8214285714285712E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3494,11 +3420,11 @@
       <c r="F6" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="43">
         <f>ABS(C6+C7+C10)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="50"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -3512,11 +3438,11 @@
       <c r="F7" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="43">
         <f>G14</f>
         <v>0</v>
       </c>
-      <c r="H7" s="51"/>
+      <c r="H7" s="45"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -3530,11 +3456,11 @@
       <c r="F8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="46">
         <f>IFERROR(IRR(G4:H4),0)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="51"/>
+      <c r="H8" s="45"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -3548,11 +3474,11 @@
       <c r="F9" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="43">
         <f>G14-G15</f>
         <v>0</v>
       </c>
-      <c r="H9" s="51"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -3566,11 +3492,11 @@
       <c r="F10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="47">
         <f>IFERROR(H5/G6,0)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="51"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -3584,11 +3510,11 @@
       <c r="F11" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="41">
         <f>IFERROR(G6/G7,0)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="48"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
